--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,9 +266,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -278,9 +277,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Normal" xfId="2"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,6 +370,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -407,6 +422,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,21 +617,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.36328125" customWidth="1"/>
-    <col min="8" max="8" width="45.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +655,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -651,7 +681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -677,7 +707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -703,7 +733,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -729,7 +759,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -755,7 +785,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -781,7 +811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -807,7 +837,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -833,7 +863,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -859,7 +889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
